--- a/야구K6_ItemTablev1.0.23.xlsx
+++ b/야구K6_ItemTablev1.0.23.xlsx
@@ -52020,9 +52020,9 @@
   <dimension ref="A1:AC494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="16" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A393" sqref="A393:XFD408"/>
+      <selection pane="bottomLeft" activeCell="O384" sqref="B383:O384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -52031,20 +52031,20 @@
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.75" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="32" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32" style="3" customWidth="1"/>
     <col min="19" max="19" width="18.125" style="1" customWidth="1"/>
     <col min="20" max="20" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.75" style="1" customWidth="1"/>
